--- a/Node/webScrapping/espn_scrapper/IPL/Delhi Capitals/Ishan Kishan .xlsx
+++ b/Node/webScrapping/espn_scrapper/IPL/Delhi Capitals/Ishan Kishan .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,79 +472,9 @@
         <v>186.66</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 31 2020</v>
-      </c>
-      <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Mumbai won by 9 wickets (with 34 balls remaining)</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="F3" t="str">
-        <v xml:space="preserve">Ishan Kishan </v>
-      </c>
-      <c r="G3" t="str">
-        <v>72</v>
-      </c>
-      <c r="H3" t="str">
-        <v>47</v>
-      </c>
-      <c r="I3" t="str">
-        <v>8</v>
-      </c>
-      <c r="J3" t="str">
-        <v>3</v>
-      </c>
-      <c r="K3" t="str">
-        <v>153.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> Nov 10 2020</v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Mumbai won by 5 wickets (with 8 balls remaining)</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve">Ishan Kishan </v>
-      </c>
-      <c r="G4" t="str">
-        <v>33</v>
-      </c>
-      <c r="H4" t="str">
-        <v>19</v>
-      </c>
-      <c r="I4" t="str">
-        <v>3</v>
-      </c>
-      <c r="J4" t="str">
-        <v>1</v>
-      </c>
-      <c r="K4" t="str">
-        <v>173.68</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>